--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9CF40-E0D9-43B3-A178-91E9761C15D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1590EB-9F48-4494-A89E-B991BF06C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -705,6 +737,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -823,9 +863,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1100,7 +1140,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1792,8 +1832,8 @@
       <c r="J17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="16">
-        <v>0</v>
+      <c r="K17" s="20">
+        <v>1</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>7</v>
@@ -1834,8 +1874,8 @@
       <c r="J18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="16">
-        <v>0</v>
+      <c r="K18" s="20">
+        <v>1</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>7</v>
@@ -1879,8 +1919,8 @@
       <c r="K19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="16">
-        <v>0</v>
+      <c r="L19" s="20">
+        <v>1</v>
       </c>
       <c r="M19" s="7" t="str">
         <f t="shared" ref="M19:M21" si="2">IF(OR(AND(I19&gt;1,I19&lt;&gt;"-"),AND(J19&gt;1,J19&lt;&gt;"-"),AND(K19&gt;1,K19&lt;&gt;"-")),"Can exchange","")</f>
@@ -1918,8 +1958,8 @@
       <c r="J20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="16">
-        <v>0</v>
+      <c r="K20" s="20">
+        <v>1</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>7</v>
@@ -1963,8 +2003,8 @@
       <c r="K21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="16">
-        <v>0</v>
+      <c r="L21" s="20">
+        <v>1</v>
       </c>
       <c r="M21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1981,8 +2021,68 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -1995,9 +2095,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2010,9 +2110,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2025,9 +2125,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2040,9 +2140,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2055,9 +2170,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="K8">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2070,9 +2185,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="J4">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2085,9 +2200,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="K20">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2100,9 +2215,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2115,9 +2230,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2130,9 +2245,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2145,9 +2260,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1590EB-9F48-4494-A89E-B991BF06C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1F56A-8760-4EE5-AD06-F184E271A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="1170" windowWidth="28730" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -730,15 +730,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -842,6 +833,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -863,9 +863,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1140,7 +1140,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1554,7 +1554,7 @@
         <v>2015</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>42</v>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(I11&gt;1,I11&lt;&gt;"-"),AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
         <v>2015</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>42</v>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -2036,7 +2036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -2051,7 +2051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -2065,9 +2065,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -2081,7 +2081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -2096,7 +2096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -2111,7 +2111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -2125,9 +2125,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2141,7 +2141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -2156,7 +2156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -2171,7 +2171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -2186,7 +2186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -2201,7 +2201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1F56A-8760-4EE5-AD06-F184E271A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A21F8-6803-473A-AB3A-157591ADEC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="1170" windowWidth="28730" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -195,12 +195,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -331,6 +325,30 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -591,6 +609,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -598,11 +625,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,12 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -688,6 +706,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1134,879 +1158,912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="14" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="3" max="5" width="24.81640625" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="13" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f t="shared" ref="N3:N16" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M16" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="20">
-        <v>1</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="str">
+      <c r="L4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2009</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="C5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="19">
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="str">
+      <c r="K5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2010</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
         <v>2</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7" t="str">
+      <c r="K6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>2011</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="7" t="str">
+      <c r="K7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>2012</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19">
         <v>1</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="7" t="str">
+      <c r="M8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>2013</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="B9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19">
         <v>1</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="7" t="str">
+      <c r="M9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>2014</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="19">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="7" t="str">
+      <c r="L10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>2015</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f>IF(OR(AND(I11&gt;1,I11&lt;&gt;"-"),AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="M11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f>IF(OR(AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-"),AND(L11&gt;1,L11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>2015</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="19">
         <v>1</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f>IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="M12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>IF(OR(AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-"),AND(L12&gt;1,L12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>2016</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="B13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="19">
         <v>1</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>2017</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="B14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="19">
         <v>1</v>
       </c>
-      <c r="L14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="7" t="str">
+      <c r="M14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>2018</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="F15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="19">
         <v>2</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>2019</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="19">
         <v>1</v>
       </c>
-      <c r="M16" s="7" t="str">
+      <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>2020</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f t="shared" ref="N17:N18" si="1">IF(OR(AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-"),AND(L17&gt;1,L17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="19">
         <v>1</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f t="shared" ref="M17:M18" si="1">IF(OR(AND(I17&gt;1,I17&lt;&gt;"-"),AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="20">
-        <v>1</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="7" t="str">
+      <c r="M18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>2022</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="B19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="19">
         <v>1</v>
       </c>
-      <c r="M19" s="7" t="str">
-        <f t="shared" ref="M19:M21" si="2">IF(OR(AND(I19&gt;1,I19&lt;&gt;"-"),AND(J19&gt;1,J19&lt;&gt;"-"),AND(K19&gt;1,K19&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="N19" s="6" t="str">
+        <f t="shared" ref="N19:N21" si="2">IF(OR(AND(J19&gt;1,J19&lt;&gt;"-"),AND(K19&gt;1,K19&lt;&gt;"-"),AND(L19&gt;1,L19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>2022</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="20">
+      <c r="B20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="19">
         <v>1</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="7" t="str">
+      <c r="M20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>2023</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="20">
+      <c r="B21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="19">
         <v>1</v>
       </c>
-      <c r="M21" s="7" t="str">
+      <c r="N21" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2015,14 +2072,14 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="M13">
     <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -2035,9 +2092,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="L14">
     <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -2050,9 +2107,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -2065,9 +2122,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="L12">
     <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K12))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -2080,9 +2137,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="M16">
     <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -2095,9 +2152,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="M15">
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2110,9 +2167,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2125,9 +2182,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="L11">
     <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2140,9 +2197,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="K10">
     <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2155,9 +2212,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L9">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2170,9 +2227,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="L8">
     <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2185,9 +2242,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="K4">
     <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2200,9 +2257,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="L20">
     <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2215,9 +2272,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="L17">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2230,9 +2287,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="L18">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2245,9 +2302,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="M19">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2260,9 +2317,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="M21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2291,87 +2348,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A21F8-6803-473A-AB3A-157591ADEC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EB046-70F6-48CA-88F6-D06085DBE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 years of the National and University Library	</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -857,15 +880,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -887,9 +901,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="18" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1158,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2068,6 +2082,49 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f t="shared" ref="N22" si="3">IF(OR(AND(J22&gt;1,J22&lt;&gt;"-"),AND(K22&gt;1,K22&lt;&gt;"-"),AND(L22&gt;1,L22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -2078,8 +2135,23 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -2092,9 +2164,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -2107,9 +2179,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -2122,11 +2194,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2137,9 +2209,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -2152,9 +2224,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2167,9 +2239,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2182,9 +2254,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2197,9 +2269,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2212,9 +2284,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2227,9 +2299,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2242,9 +2314,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2257,9 +2329,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2272,9 +2344,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2287,9 +2359,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2302,9 +2374,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2317,9 +2389,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="M22">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EB046-70F6-48CA-88F6-D06085DBE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D56D01-F6DD-45EB-9783-74CE641298D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,18 +474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9F9F"/>
-        <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -588,21 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -631,7 +610,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,10 +650,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +702,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -743,6 +727,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -901,9 +893,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1178,7 +1170,7 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,33 +1186,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1259,13 +1251,13 @@
       <c r="A3" s="4">
         <v>2007</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1274,25 +1266,25 @@
       <c r="F3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="G3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="6" t="str">
@@ -1304,38 +1296,38 @@
       <c r="A4" s="4">
         <v>2008</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="H4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="18">
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="L4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="6" t="str">
@@ -1347,13 +1339,13 @@
       <c r="A5" s="4">
         <v>2009</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1362,25 +1354,25 @@
       <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="19">
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="K5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="6" t="str">
@@ -1392,11 +1384,11 @@
       <c r="A6" s="4">
         <v>2010</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1405,25 +1397,25 @@
       <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="18">
         <v>2</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="K6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="6" t="str">
@@ -1435,11 +1427,11 @@
       <c r="A7" s="4">
         <v>2011</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1448,25 +1440,25 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="G7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="6" t="str">
@@ -1478,40 +1470,40 @@
       <c r="A8" s="4">
         <v>2012</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="I8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="18">
         <v>1</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="6" t="str">
@@ -1523,38 +1515,38 @@
       <c r="A9" s="4">
         <v>2013</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="I9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="18">
         <v>1</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="6" t="str">
@@ -1566,38 +1558,38 @@
       <c r="A10" s="4">
         <v>2014</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="H10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="18">
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="16" t="s">
+      <c r="L10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="6" t="str">
@@ -1609,40 +1601,40 @@
       <c r="A11" s="4">
         <v>2015</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="I11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="18">
         <v>1</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="6" t="str">
@@ -1654,38 +1646,38 @@
       <c r="A12" s="4">
         <v>2015</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="I12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="6" t="str">
@@ -1697,38 +1689,38 @@
       <c r="A13" s="4">
         <v>2016</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="19">
+      <c r="J13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="18">
         <v>1</v>
       </c>
       <c r="N13" s="6" t="str">
@@ -1740,38 +1732,38 @@
       <c r="A14" s="4">
         <v>2017</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="I14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="18">
         <v>1</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="6" t="str">
@@ -1783,38 +1775,38 @@
       <c r="A15" s="4">
         <v>2018</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="F15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="19">
+      <c r="J15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18">
         <v>2</v>
       </c>
       <c r="N15" s="6" t="str">
@@ -1826,38 +1818,38 @@
       <c r="A16" s="4">
         <v>2019</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="19">
+      <c r="J16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="18">
         <v>1</v>
       </c>
       <c r="N16" s="6" t="str">
@@ -1869,38 +1861,38 @@
       <c r="A17" s="4">
         <v>2020</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="18">
         <v>1</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="6" t="str">
@@ -1912,38 +1904,38 @@
       <c r="A18" s="4">
         <v>2021</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="I18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="18">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="6" t="str">
@@ -1955,38 +1947,38 @@
       <c r="A19" s="4">
         <v>2022</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="19">
+      <c r="J19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="18">
         <v>1</v>
       </c>
       <c r="N19" s="6" t="str">
@@ -1998,40 +1990,40 @@
       <c r="A20" s="4">
         <v>2022</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="19">
+      <c r="I20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="18">
         <v>1</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="6" t="str">
@@ -2043,38 +2035,38 @@
       <c r="A21" s="4">
         <v>2023</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="F21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="19">
+      <c r="J21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="18">
         <v>1</v>
       </c>
       <c r="N21" s="6" t="str">
@@ -2086,38 +2078,38 @@
       <c r="A22" s="4">
         <v>2024</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="F22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="19">
+      <c r="J22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="18">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="str">
@@ -2135,8 +2127,38 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M13">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -2149,9 +2171,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="L12">
     <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -2164,24 +2186,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -2194,9 +2201,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -2209,9 +2231,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+  <conditionalFormatting sqref="L11">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -2224,9 +2246,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="K10">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2239,9 +2261,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="L9">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2254,9 +2276,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="L8">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2269,9 +2291,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="K4">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2284,9 +2306,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="L20">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2299,9 +2321,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="L17">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2314,9 +2336,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="L18">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2329,9 +2351,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="M19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2344,9 +2366,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="M21">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2359,9 +2381,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
+  <conditionalFormatting sqref="M22">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2374,9 +2396,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2389,9 +2411,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
+  <conditionalFormatting sqref="J7">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D56D01-F6DD-45EB-9783-74CE641298D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110872E9-E01D-4667-A2CF-754F85733C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{CF9E26DC-5984-458B-BA8C-933EE72135BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Imprensa Nacional-Casa da Moeda
+(Portuguese mint (Lissabon))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -179,12 +195,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{1304AEC6-8B46-4B50-8640-23AEA783E270}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Imprensa Nacional-Casa da Moeda
+(Portuguese mint (Lissabon))</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -354,7 +386,10 @@
     <t xml:space="preserve">250 years of the National and University Library	</t>
   </si>
   <si>
-    <t>???</t>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Birth of Miki Muster</t>
   </si>
 </sst>
 </file>
@@ -479,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -603,6 +638,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -610,7 +654,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,20 +709,20 @@
     <xf numFmtId="3" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,11 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -702,7 +752,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -720,13 +779,12 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -893,9 +951,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1164,13 +1222,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,40 +1237,42 @@
     <col min="2" max="2" width="48.54296875" customWidth="1"/>
     <col min="3" max="5" width="24.81640625" customWidth="1"/>
     <col min="6" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="13" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="13" customWidth="1"/>
+    <col min="11" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="15" width="3.81640625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1234,20 +1294,26 @@
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -1275,24 +1341,30 @@
       <c r="I3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="L3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N16" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="N3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f t="shared" ref="P3:P16" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -1318,24 +1390,30 @@
       <c r="I4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="J4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="18">
         <v>1</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="M4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="N4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -1363,24 +1441,30 @@
       <c r="I5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="L5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="N5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -1406,24 +1490,30 @@
       <c r="I6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="18">
         <v>2</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="L6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="N6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -1449,24 +1539,30 @@
       <c r="I7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="18">
         <v>1</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="L7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="6" t="str">
+      <c r="N7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -1494,24 +1590,30 @@
       <c r="I8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="18">
         <v>1</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -1537,24 +1639,30 @@
       <c r="I9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="18">
         <v>1</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -1580,24 +1688,30 @@
       <c r="I10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="18">
         <v>1</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -1625,24 +1739,30 @@
       <c r="I11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="18">
         <v>1</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6" t="str">
-        <f>IF(OR(AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-"),AND(L11&gt;1,L11&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="N11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f>IF(OR(AND(K11&gt;1,K11&lt;&gt;"-"),AND(L11&gt;1,L11&lt;&gt;"-"),AND(M11&gt;1,M11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2015</v>
       </c>
@@ -1668,24 +1788,30 @@
       <c r="I12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(OR(AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-"),AND(L12&gt;1,L12&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="N12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="6" t="str">
+        <f>IF(OR(AND(K12&gt;1,K12&lt;&gt;"-"),AND(L12&gt;1,L12&lt;&gt;"-"),AND(M12&gt;1,M12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2016</v>
       </c>
@@ -1711,7 +1837,7 @@
       <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -1720,15 +1846,21 @@
       <c r="L13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="18">
         <v>1</v>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="O13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2017</v>
       </c>
@@ -1754,24 +1886,30 @@
       <c r="I14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="18">
         <v>1</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="6" t="str">
+      <c r="N14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>2018</v>
       </c>
@@ -1797,7 +1935,7 @@
       <c r="I15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -1806,15 +1944,21 @@
       <c r="L15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="18">
         <v>2</v>
       </c>
-      <c r="N15" s="6" t="str">
+      <c r="O15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>2019</v>
       </c>
@@ -1840,7 +1984,7 @@
       <c r="I16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -1849,15 +1993,21 @@
       <c r="L16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="18">
         <v>1</v>
       </c>
-      <c r="N16" s="6" t="str">
+      <c r="O16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2020</v>
       </c>
@@ -1883,24 +2033,30 @@
       <c r="I17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="18">
         <v>1</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="6" t="str">
-        <f t="shared" ref="N17:N18" si="1">IF(OR(AND(J17&gt;1,J17&lt;&gt;"-"),AND(K17&gt;1,K17&lt;&gt;"-"),AND(L17&gt;1,L17&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="N17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6" t="str">
+        <f t="shared" ref="P17:P18" si="1">IF(OR(AND(K17&gt;1,K17&lt;&gt;"-"),AND(L17&gt;1,L17&lt;&gt;"-"),AND(M17&gt;1,M17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2021</v>
       </c>
@@ -1926,24 +2082,30 @@
       <c r="I18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="18">
         <v>1</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6" t="str">
+      <c r="N18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2022</v>
       </c>
@@ -1969,7 +2131,7 @@
       <c r="I19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -1978,15 +2140,21 @@
       <c r="L19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="18">
         <v>1</v>
       </c>
-      <c r="N19" s="6" t="str">
-        <f t="shared" ref="N19:N21" si="2">IF(OR(AND(J19&gt;1,J19&lt;&gt;"-"),AND(K19&gt;1,K19&lt;&gt;"-"),AND(L19&gt;1,L19&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="O19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="6" t="str">
+        <f t="shared" ref="P19:P21" si="2">IF(OR(AND(K19&gt;1,K19&lt;&gt;"-"),AND(L19&gt;1,L19&lt;&gt;"-"),AND(M19&gt;1,M19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2022</v>
       </c>
@@ -2014,24 +2182,30 @@
       <c r="I20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="18">
         <v>1</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6" t="str">
+      <c r="N20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2023</v>
       </c>
@@ -2057,7 +2231,7 @@
       <c r="I21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="15" t="s">
@@ -2066,15 +2240,21 @@
       <c r="L21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="18">
         <v>1</v>
       </c>
-      <c r="N21" s="6" t="str">
+      <c r="O21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2024</v>
       </c>
@@ -2097,11 +2277,11 @@
       <c r="H22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>5</v>
+      <c r="I22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>5</v>
@@ -2109,11 +2289,62 @@
       <c r="L22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6" t="str">
-        <f t="shared" ref="N22" si="3">IF(OR(AND(J22&gt;1,J22&lt;&gt;"-"),AND(K22&gt;1,K22&lt;&gt;"-"),AND(L22&gt;1,L22&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="M22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="18">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="str">
+        <f t="shared" ref="P22" si="3">IF(OR(AND(K22&gt;1,K22&lt;&gt;"-"),AND(L22&gt;1,L22&lt;&gt;"-"),AND(M22&gt;1,M22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="6" t="str">
+        <f t="shared" ref="P23" si="4">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2121,14 +2352,29 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="M13">
+  <conditionalFormatting sqref="N13">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
     <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
@@ -2141,9 +2387,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="K5">
     <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -2156,9 +2402,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -2171,11 +2417,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2186,9 +2432,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="N15">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -2201,9 +2447,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+  <conditionalFormatting sqref="K6">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
@@ -2216,9 +2462,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -2231,9 +2477,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="L10">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -2246,9 +2492,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="M9">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2261,9 +2507,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="M8">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2276,9 +2522,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="L4">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -2291,9 +2537,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="M20">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2306,9 +2552,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="M17">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -2321,9 +2567,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="M18">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -2336,9 +2582,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="N19">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2351,9 +2597,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
+  <conditionalFormatting sqref="N21">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -2366,9 +2612,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="O22">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2381,9 +2627,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
+  <conditionalFormatting sqref="K3">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2396,9 +2642,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2411,9 +2657,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110872E9-E01D-4667-A2CF-754F85733C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A6192-6D91-47D9-ABEC-284C6645BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -362,9 +365,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>100th Anniversary - Birth of Miki Muster</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +713,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,7 +1234,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,51 +1242,51 @@
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" customWidth="1"/>
     <col min="3" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="10" width="12.453125" style="13" customWidth="1"/>
-    <col min="11" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="15" width="3.81640625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="10" width="12.6328125" style="13" customWidth="1"/>
+    <col min="11" max="13" width="3.6328125" customWidth="1"/>
+    <col min="14" max="15" width="3.6328125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>4</v>
@@ -1310,7 +1316,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1321,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>40</v>
@@ -1421,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>40</v>
@@ -1567,7 +1573,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>8</v>
@@ -1719,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>40</v>
@@ -2162,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>40</v>
@@ -2259,7 +2265,7 @@
         <v>2024</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17" t="s">
@@ -2308,7 +2314,7 @@
         <v>2025</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
@@ -2349,9 +2355,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
